--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J2">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>3.098621063875556</v>
+        <v>1.516227632909333</v>
       </c>
       <c r="R2">
-        <v>27.88758957488</v>
+        <v>13.646048696184</v>
       </c>
       <c r="S2">
-        <v>0.1428758193787101</v>
+        <v>0.05652181670932983</v>
       </c>
       <c r="T2">
-        <v>0.1428758193787102</v>
+        <v>0.05652181670932983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J3">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>7.731986737240889</v>
+        <v>3.540112348166444</v>
       </c>
       <c r="R3">
-        <v>69.58788063516801</v>
+        <v>31.861011133498</v>
       </c>
       <c r="S3">
-        <v>0.3565179212739574</v>
+        <v>0.1319680349642224</v>
       </c>
       <c r="T3">
-        <v>0.3565179212739575</v>
+        <v>0.1319680349642224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J4">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>1.681499591669334</v>
+        <v>1.126561588996333</v>
       </c>
       <c r="R4">
-        <v>15.133496325024</v>
+        <v>10.139054300967</v>
       </c>
       <c r="S4">
-        <v>0.07753307906718959</v>
+        <v>0.04199587599049498</v>
       </c>
       <c r="T4">
-        <v>0.07753307906718959</v>
+        <v>0.04199587599049498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J5">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>4.826480888618667</v>
+        <v>0.7142202911232222</v>
       </c>
       <c r="R5">
-        <v>43.438327997568</v>
+        <v>6.427982620109001</v>
       </c>
       <c r="S5">
-        <v>0.2225465448861906</v>
+        <v>0.0266246489041299</v>
       </c>
       <c r="T5">
-        <v>0.2225465448861906</v>
+        <v>0.0266246489041299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J6">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>1.119083051831111</v>
+        <v>0.532442356286111</v>
       </c>
       <c r="R6">
-        <v>10.07174746648</v>
+        <v>4.791981206575</v>
       </c>
       <c r="S6">
-        <v>0.05160034243852249</v>
+        <v>0.01984834507503455</v>
       </c>
       <c r="T6">
-        <v>0.05160034243852249</v>
+        <v>0.01984834507503455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H7">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I7">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J7">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>1.708996421315556</v>
+        <v>0.5808791219452222</v>
       </c>
       <c r="R7">
-        <v>15.38096779184</v>
+        <v>5.227912097507</v>
       </c>
       <c r="S7">
-        <v>0.07880094370279209</v>
+        <v>0.02165396708795347</v>
       </c>
       <c r="T7">
-        <v>0.0788009437027921</v>
+        <v>0.02165396708795347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H8">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I8">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J8">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>0.2336786836066666</v>
+        <v>3.311604490282667</v>
       </c>
       <c r="R8">
-        <v>2.10310815246</v>
+        <v>29.804440412544</v>
       </c>
       <c r="S8">
-        <v>0.01077480359921213</v>
+        <v>0.123449736669417</v>
       </c>
       <c r="T8">
-        <v>0.01077480359921213</v>
+        <v>0.1234497366694169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H9">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I9">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J9">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
-        <v>0.5830982379506666</v>
+        <v>7.731986737240889</v>
       </c>
       <c r="R9">
-        <v>5.247884141556</v>
+        <v>69.58788063516801</v>
       </c>
       <c r="S9">
-        <v>0.02688635906362942</v>
+        <v>0.2882324050002536</v>
       </c>
       <c r="T9">
-        <v>0.02688635906362943</v>
+        <v>0.2882324050002535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H10">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I10">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J10">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>0.126808216612</v>
+        <v>2.460531872474667</v>
       </c>
       <c r="R10">
-        <v>1.141273949508</v>
+        <v>22.144786852272</v>
       </c>
       <c r="S10">
-        <v>0.005847061476349694</v>
+        <v>0.09172351729048953</v>
       </c>
       <c r="T10">
-        <v>0.005847061476349694</v>
+        <v>0.0917235172904895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H11">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I11">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J11">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>0.363983099984</v>
+        <v>1.559934057260445</v>
       </c>
       <c r="R11">
-        <v>3.275847899856</v>
+        <v>14.039406515344</v>
       </c>
       <c r="S11">
-        <v>0.01678307304384398</v>
+        <v>0.05815110142395648</v>
       </c>
       <c r="T11">
-        <v>0.01678307304384398</v>
+        <v>0.05815110142395646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H12">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I12">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J12">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>0.08439426732333331</v>
+        <v>1.162911465022222</v>
       </c>
       <c r="R12">
-        <v>0.7595484059099999</v>
+        <v>10.4662031852</v>
       </c>
       <c r="S12">
-        <v>0.003891376146396522</v>
+        <v>0.04335092386427623</v>
       </c>
       <c r="T12">
-        <v>0.003891376146396522</v>
+        <v>0.04335092386427622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,46 +1225,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.852656</v>
+      </c>
+      <c r="I13">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J13">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.463825666666667</v>
+      </c>
+      <c r="N13">
+        <v>13.391477</v>
+      </c>
+      <c r="O13">
+        <v>0.07251522760122259</v>
+      </c>
+      <c r="P13">
+        <v>0.07251522760122257</v>
+      </c>
+      <c r="Q13">
+        <v>1.268702579212444</v>
+      </c>
+      <c r="R13">
+        <v>11.418323212912</v>
+      </c>
+      <c r="S13">
+        <v>0.04729459685634674</v>
+      </c>
+      <c r="T13">
+        <v>0.04729459685634672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
         <v>0.021434</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.064302</v>
       </c>
-      <c r="I13">
-        <v>0.07012534925263751</v>
-      </c>
-      <c r="J13">
-        <v>0.07012534925263753</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.012963333333334</v>
-      </c>
-      <c r="N13">
-        <v>18.03889</v>
-      </c>
-      <c r="O13">
-        <v>0.08474361962599786</v>
-      </c>
-      <c r="P13">
-        <v>0.08474361962599786</v>
-      </c>
-      <c r="Q13">
-        <v>0.1288818560866667</v>
-      </c>
-      <c r="R13">
-        <v>1.15993670478</v>
-      </c>
-      <c r="S13">
-        <v>0.005942675923205767</v>
-      </c>
-      <c r="T13">
-        <v>0.005942675923205768</v>
+      <c r="I14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.651608</v>
+      </c>
+      <c r="N14">
+        <v>34.954824</v>
+      </c>
+      <c r="O14">
+        <v>0.1892813629236475</v>
+      </c>
+      <c r="P14">
+        <v>0.1892813629236474</v>
+      </c>
+      <c r="Q14">
+        <v>0.249740565872</v>
+      </c>
+      <c r="R14">
+        <v>2.247665092848</v>
+      </c>
+      <c r="S14">
+        <v>0.009309809544900694</v>
+      </c>
+      <c r="T14">
+        <v>0.009309809544900694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.021434</v>
+      </c>
+      <c r="H15">
+        <v>0.064302</v>
+      </c>
+      <c r="I15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N15">
+        <v>81.613078</v>
+      </c>
+      <c r="O15">
+        <v>0.4419371310876561</v>
+      </c>
+      <c r="P15">
+        <v>0.4419371310876561</v>
+      </c>
+      <c r="Q15">
+        <v>0.5830982379506666</v>
+      </c>
+      <c r="R15">
+        <v>5.247884141556</v>
+      </c>
+      <c r="S15">
+        <v>0.02173669112318016</v>
+      </c>
+      <c r="T15">
+        <v>0.02173669112318016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.021434</v>
+      </c>
+      <c r="H16">
+        <v>0.064302</v>
+      </c>
+      <c r="I16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.657178999999999</v>
+      </c>
+      <c r="N16">
+        <v>25.971537</v>
+      </c>
+      <c r="O16">
+        <v>0.1406366091439035</v>
+      </c>
+      <c r="P16">
+        <v>0.1406366091439035</v>
+      </c>
+      <c r="Q16">
+        <v>0.185557974686</v>
+      </c>
+      <c r="R16">
+        <v>1.670021772174</v>
+      </c>
+      <c r="S16">
+        <v>0.006917215862918992</v>
+      </c>
+      <c r="T16">
+        <v>0.006917215862918992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.021434</v>
+      </c>
+      <c r="H17">
+        <v>0.064302</v>
+      </c>
+      <c r="I17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.488499666666667</v>
+      </c>
+      <c r="N17">
+        <v>16.465499</v>
+      </c>
+      <c r="O17">
+        <v>0.08916114387925267</v>
+      </c>
+      <c r="P17">
+        <v>0.08916114387925267</v>
+      </c>
+      <c r="Q17">
+        <v>0.1176405018553333</v>
+      </c>
+      <c r="R17">
+        <v>1.058764516698</v>
+      </c>
+      <c r="S17">
+        <v>0.004385393551166295</v>
+      </c>
+      <c r="T17">
+        <v>0.004385393551166295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.021434</v>
+      </c>
+      <c r="H18">
+        <v>0.064302</v>
+      </c>
+      <c r="I18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.091608333333333</v>
+      </c>
+      <c r="N18">
+        <v>12.274825</v>
+      </c>
+      <c r="O18">
+        <v>0.06646852536431769</v>
+      </c>
+      <c r="P18">
+        <v>0.06646852536431769</v>
+      </c>
+      <c r="Q18">
+        <v>0.08769953301666666</v>
+      </c>
+      <c r="R18">
+        <v>0.78929579715</v>
+      </c>
+      <c r="S18">
+        <v>0.003269256425006908</v>
+      </c>
+      <c r="T18">
+        <v>0.003269256425006908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.021434</v>
+      </c>
+      <c r="H19">
+        <v>0.064302</v>
+      </c>
+      <c r="I19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.463825666666667</v>
+      </c>
+      <c r="N19">
+        <v>13.391477</v>
+      </c>
+      <c r="O19">
+        <v>0.07251522760122259</v>
+      </c>
+      <c r="P19">
+        <v>0.07251522760122257</v>
+      </c>
+      <c r="Q19">
+        <v>0.09567763933933332</v>
+      </c>
+      <c r="R19">
+        <v>0.8610987540539999</v>
+      </c>
+      <c r="S19">
+        <v>0.003566663656922378</v>
+      </c>
+      <c r="T19">
+        <v>0.003566663656922378</v>
       </c>
     </row>
   </sheetData>
